--- a/administration/todoupdateheader.xlsx
+++ b/administration/todoupdateheader.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="740" windowWidth="24880" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="11060" yWindow="2360" windowWidth="24880" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -617,6 +617,9 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
@@ -625,11 +628,17 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" t="s">
         <v>27</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" t="s">
@@ -638,6 +647,9 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
@@ -646,6 +658,9 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
@@ -654,6 +669,9 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
@@ -662,6 +680,9 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="3:5">
       <c r="C10" t="s">
@@ -670,6 +691,9 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
@@ -678,6 +702,9 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" t="s">
@@ -686,192 +713,279 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="3:5">
       <c r="C13" t="s">
         <v>28</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="3:5">
       <c r="C14" t="s">
         <v>29</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="3:5">
       <c r="C15" t="s">
         <v>30</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="3:5">
       <c r="C16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="3:4">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="3:4">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="3:4">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="3:4">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="3:4">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="3:4">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="3:4">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
       <c r="C23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="3:4">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="3:4">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
       <c r="C25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="3:4">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
       <c r="C26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="3:4">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="3:4">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
       <c r="C28" t="s">
         <v>19</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="3:4">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
       <c r="C29" t="s">
         <v>20</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="3:4">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
       <c r="C30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="3:4">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
       <c r="C31" t="s">
         <v>21</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="3:4">
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
       <c r="C32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="3:4">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
       <c r="C33" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="3:4">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
       <c r="C34" t="s">
         <v>22</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="3:4">
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
       <c r="C35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="3:4">
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
       <c r="C36" t="s">
         <v>23</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="3:4">
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
       <c r="C37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="3:4">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
       <c r="C38" t="s">
         <v>24</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="3:4">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
       <c r="C39" t="s">
         <v>25</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="3:4">
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
       <c r="C40" t="s">
         <v>26</v>
       </c>
       <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
         <v>1</v>
       </c>
     </row>
